--- a/Bang ke NL, nông lâm sản/Nam 2017/Tháng 11.xlsx
+++ b/Bang ke NL, nông lâm sản/Nam 2017/Tháng 11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="15600" windowHeight="9735" tabRatio="892" firstSheet="2" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="15600" windowHeight="9735" tabRatio="892" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="PV 68.800" sheetId="50" r:id="rId1"/>
@@ -2847,6 +2847,8 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Vine"/>
+      <sheetName val="SNACK 03"/>
+      <sheetName val="KOJUBU 08"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1">
@@ -2866,6 +2868,9 @@
           <cell r="E5">
             <v>0</v>
           </cell>
+          <cell r="F5" t="str">
+            <v>Tên mặt hàng</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6">
@@ -2883,6 +2888,9 @@
           <cell r="E6">
             <v>0</v>
           </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7">
@@ -2900,6 +2908,9 @@
           <cell r="E7">
             <v>0</v>
           </cell>
+          <cell r="F7" t="str">
+            <v>Cá cơm NL</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8">
@@ -2914,6 +2925,12 @@
           <cell r="D8">
             <v>0</v>
           </cell>
+          <cell r="E8">
+            <v>370803567</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>Cá chỉ vàng NL</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9">
@@ -2931,6 +2948,9 @@
           <cell r="E9">
             <v>0</v>
           </cell>
+          <cell r="F9" t="str">
+            <v>Cá mối NL</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -2948,6 +2968,9 @@
           <cell r="E10" t="str">
             <v>Tên mặt hàng</v>
           </cell>
+          <cell r="F10" t="str">
+            <v>Cá chai NL</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -2962,6 +2985,12 @@
           <cell r="D11">
             <v>0</v>
           </cell>
+          <cell r="E11">
+            <v>0</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -2976,6 +3005,12 @@
           <cell r="D12" t="str">
             <v>Bến Tre</v>
           </cell>
+          <cell r="E12">
+            <v>0</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -3021,6 +3056,9 @@
           <cell r="D15" t="str">
             <v>Bến Tre</v>
           </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
@@ -3038,6 +3076,9 @@
           <cell r="E16">
             <v>0</v>
           </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
@@ -3219,6 +3260,9 @@
           <cell r="E27" t="str">
             <v>Cá chỉ vàng</v>
           </cell>
+          <cell r="F27">
+            <v>0</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
@@ -3236,6 +3280,9 @@
           <cell r="E28" t="str">
             <v>Cá chỉ vàng</v>
           </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
@@ -3253,6 +3300,9 @@
           <cell r="E29" t="str">
             <v>Cá chỉ vàng</v>
           </cell>
+          <cell r="F29">
+            <v>0</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
@@ -3270,6 +3320,9 @@
           <cell r="E30" t="str">
             <v>Cá chỉ vàng</v>
           </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
@@ -4306,6 +4359,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13943,8 +13998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -18079,7 +18134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
